--- a/Proyectos/2016/1/P1429 - AECNOM5, Emmanuel Arreola_MO/Calidad/No_conformidades.xlsx
+++ b/Proyectos/2016/1/P1429 - AECNOM5, Emmanuel Arreola_MO/Calidad/No_conformidades.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>REPORTE DE NO CONFORMIDADES P1429 - AECNOM5, Emmanuel Arreola_MO</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Marisol Ornelas</t>
   </si>
   <si>
-    <t>En proceso</t>
+    <t>Cerrada</t>
   </si>
   <si>
     <t>Crear una carpeta llamada lineabase y agregar tambien el plan de proyecto, carta de aceptacion, estimacion y cotizacion.</t>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Judith Jaramillo</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>Generar encuesta de satisfaccion</t>
@@ -304,7 +307,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -376,7 +379,9 @@
       <c r="D4" s="5" t="n">
         <v>42391</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="n">
+        <v>42393</v>
+      </c>
       <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
@@ -397,12 +402,14 @@
       <c r="D5" s="5" t="n">
         <v>42391</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
